--- a/structure/BOM.xlsx
+++ b/structure/BOM.xlsx
@@ -1,18 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loic-\Documents\projects\RecuH2O\structure\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6402700-4580-42A6-B652-82262F711F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Résumé de l’exportation" sheetId="1" r:id="rId4"/>
-    <sheet name="Multi-Level Bill of Materials" sheetId="2" r:id="rId5"/>
+    <sheet name="Résumé de l’exportation" sheetId="1" r:id="rId1"/>
+    <sheet name="Multi-Level Bill of Materials" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Ce document a été exporté depuis Numbers. Chaque tableau a été converti en feuille de calcul Excel. Tous les autres objets sur chaque feuille Numbers ont été placés sur des feuilles de calcul différentes. Veuillez noter que les calculs de formules peuvent être différents dans Excel.</t>
   </si>
@@ -32,9 +51,6 @@
     <t>Tableau 1</t>
   </si>
   <si>
-    <t>MULTI-LEVEL BILL OF MATERIALS TEMPLATE</t>
-  </si>
-  <si>
     <t>Nom Produit</t>
   </si>
   <si>
@@ -123,18 +139,86 @@
   </si>
   <si>
     <t>TOTAL PARTS</t>
+  </si>
+  <si>
+    <t>RecuH2O</t>
+  </si>
+  <si>
+    <t>MULLER Loïc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BILL OF MATERIALS RECUH2O</t>
+  </si>
+  <si>
+    <t>arduino uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moteur </t>
+  </si>
+  <si>
+    <t>graphbar</t>
+  </si>
+  <si>
+    <t>fil de cuivre</t>
+  </si>
+  <si>
+    <t>shield wifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trappe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plaque rectangulaire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vis </t>
+  </si>
+  <si>
+    <t>tube PVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sert à récupérer les données de la sonde, les envoyer au graphbar, au moteur et au shield wifi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sert à ouvrir et fermer la trappe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">allume un certain nombre de led en fonction du niveau d'eau présent dans la cuve </t>
+  </si>
+  <si>
+    <t>permet de faire la liaison entre une application téléphone et la arduino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permet de dévier l'eau </t>
+  </si>
+  <si>
+    <t>sert à créer la goutière secondaire</t>
+  </si>
+  <si>
+    <t>tube plastique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sert de support pour le fil de cuivre </t>
+  </si>
+  <si>
+    <t>va servir à fabriquer le boitier étanche pour la arduino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">va servir pour récupérer la tension </t>
+  </si>
+  <si>
+    <t>sert à fixer le boitier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;dd&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="60" formatCode="&quot; &quot;[$$-409]* #,##0.00&quot; &quot;;&quot; &quot;[$$-409]* (#,##0.00);&quot; &quot;[$$-409]* &quot;-&quot;??&quot; &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot; &quot;[$$-409]* #,##0.00&quot; &quot;;&quot; &quot;[$$-409]* \(#,##0.00\);&quot; &quot;[$$-409]* &quot;-&quot;??&quot; &quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -146,23 +230,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="20"/>
       <color indexed="13"/>
       <name val="Century Gothic"/>
@@ -173,13 +247,13 @@
       <name val="Century Gothic"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="8"/>
       <color indexed="14"/>
       <name val="Century Gothic"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Century Gothic"/>
@@ -190,7 +264,7 @@
       <name val="Century Gothic"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="36"/>
       <color indexed="17"/>
       <name val="Century Gothic"/>
@@ -201,25 +275,25 @@
       <name val="CenUTRY GOTH"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="14"/>
       <name val="Century Gothic"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Century Gothic"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="14"/>
       <name val="Century Gothic"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="18"/>
       <color indexed="14"/>
       <name val="Calibri"/>
@@ -589,241 +663,206 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="78">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="9" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="9" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="9" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="9" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="11" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="12" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="13" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="9" fillId="7" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="9" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="8" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="12" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="9" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,18 +871,29 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="ffffffff"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="21"/>
-          <bgColor indexed="22"/>
+          <bgColor indexed="25"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="ffffffff"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="21"/>
+          <bgColor indexed="24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -854,23 +904,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="ffffffff"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="21"/>
-          <bgColor indexed="24"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ffffffff"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="21"/>
-          <bgColor indexed="25"/>
+          <bgColor indexed="22"/>
         </patternFill>
       </fill>
     </dxf>
@@ -878,41 +917,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffbfbfbf"/>
-      <rgbColor rgb="ff333f4f"/>
-      <rgbColor rgb="ffd9dce1"/>
-      <rgbColor rgb="ff44546a"/>
-      <rgbColor rgb="fff2f2f2"/>
-      <rgbColor rgb="ff222a35"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="015E88B1"/>
+      <rgbColor rgb="01EEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF333F4F"/>
+      <rgbColor rgb="FFD9DCE1"/>
+      <rgbColor rgb="FF44546A"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FF222A35"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="ff0070c0"/>
-      <rgbColor rgb="ff00b0f0"/>
-      <rgbColor rgb="ff00b050"/>
-      <rgbColor rgb="ff92d050"/>
-      <rgbColor rgb="ffb4bac3"/>
-      <rgbColor rgb="ff40b14b"/>
+      <rgbColor rgb="FF0070C0"/>
+      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFB4BAC3"/>
+      <rgbColor rgb="FF40B14B"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1038,7 +1121,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1047,7 +1130,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1056,7 +1139,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1130,7 +1213,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1138,7 +1221,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1157,7 +1240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1270,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1296,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1348,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,7 +1374,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1400,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,7 +1426,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,7 +1452,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,7 +1478,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1408,9 +1491,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1425,7 +1514,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1433,7 +1522,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1452,7 +1541,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1478,7 +1567,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1504,7 +1593,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1530,7 +1619,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1556,7 +1645,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1582,7 +1671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1608,7 +1697,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1634,7 +1723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1660,7 +1749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1686,7 +1775,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1699,9 +1788,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1715,7 +1810,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1734,7 +1829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1764,7 +1859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1790,7 +1885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1816,7 +1911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1842,7 +1937,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1868,7 +1963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1894,7 +1989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1920,7 +2015,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1946,7 +2041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1972,7 +2067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1985,58 +2080,68 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+    </row>
+    <row r="7" spans="2:4" ht="18.75">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+    <row r="9" spans="2:4" ht="15.75">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.75">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2045,891 +2150,989 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Multi-Level Bill of Materials'!R1C1" tooltip="" display="Multi-Level Bill of Materials"/>
+    <hyperlink ref="D10" location="'Multi-Level Bill of Materials'!R1C1" display="Multi-Level Bill of Materials" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.35156" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="10.8516" style="6" customWidth="1"/>
-    <col min="7" max="7" width="28.6719" style="6" customWidth="1"/>
-    <col min="8" max="9" width="18.8516" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.8516" style="6" customWidth="1"/>
-    <col min="11" max="13" width="28.6719" style="6" customWidth="1"/>
-    <col min="14" max="14" width="12.8516" style="6" customWidth="1"/>
-    <col min="15" max="15" width="15.8516" style="6" customWidth="1"/>
-    <col min="16" max="16" width="3.35156" style="6" customWidth="1"/>
-    <col min="17" max="17" width="16.8516" style="6" customWidth="1"/>
-    <col min="18" max="256" width="11" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="5" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="18.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="5" customWidth="1"/>
+    <col min="11" max="13" width="28.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="3.375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="16.875" style="5" customWidth="1"/>
+    <col min="18" max="256" width="11" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
+    <row r="1" spans="1:17" ht="42" customHeight="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12"/>
-    </row>
-    <row r="2" ht="25" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" t="s" s="14">
+      <c r="C2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" t="s" s="16">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-    </row>
-    <row r="3" ht="25" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" t="s" s="21">
+      <c r="C3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-    </row>
-    <row r="4" ht="25" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" t="s" s="21">
+      <c r="C4" s="23">
+        <v>43991</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="20"/>
-    </row>
-    <row r="5" ht="25" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s" s="25">
+      <c r="C5" s="25">
+        <f>E32</f>
+        <v>19</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26">
-        <f>E32</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="20"/>
-    </row>
-    <row r="6" ht="25" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" t="s" s="25">
-        <v>12</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <f>O32</f>
         <v>0</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" ht="12" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="31"/>
-    </row>
-    <row r="8" ht="25" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" t="s" s="32">
+      <c r="D6" s="22"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" ht="12" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="30"/>
+    </row>
+    <row r="8" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s" s="33">
+      <c r="D8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s" s="33">
+      <c r="E8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s" s="33">
+      <c r="F8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s" s="33">
+      <c r="G8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s" s="33">
+      <c r="H8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s" s="33">
+      <c r="I8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="s" s="33">
+      <c r="J8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J8" t="s" s="33">
+      <c r="K8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K8" t="s" s="33">
+      <c r="L8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L8" t="s" s="33">
+      <c r="M8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="M8" t="s" s="33">
+      <c r="N8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="N8" t="s" s="33">
+      <c r="O8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="O8" t="s" s="33">
+      <c r="P8" s="33"/>
+      <c r="Q8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" t="s" s="33">
+    </row>
+    <row r="9" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="34">
+        <v>1</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="35">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="36" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" ht="40" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" t="s" s="37">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="38">
+        <f t="shared" ref="O9:O31" si="0">E9*N9</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39">
-        <f>E9*N9</f>
+    </row>
+    <row r="10" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="40">
+        <f>B9+1</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="35">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="34"/>
-      <c r="Q9" t="s" s="40">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="40" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" t="s" s="43">
+      <c r="P10" s="33"/>
+      <c r="Q10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39">
-        <f>E10*N10</f>
+    </row>
+    <row r="11" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="40">
+        <f t="shared" ref="B11:B18" si="1">B10+1</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="35">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="34"/>
-      <c r="Q10" t="s" s="44">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="40" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" t="s" s="43">
+      <c r="P11" s="33"/>
+      <c r="Q11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39">
-        <f>E11*N11</f>
+    </row>
+    <row r="12" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="40">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="35">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="34"/>
-      <c r="Q11" t="s" s="45">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" ht="40" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" t="s" s="43">
+      <c r="P12" s="33"/>
+      <c r="Q12" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39">
-        <f>E12*N12</f>
+    </row>
+    <row r="13" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="40">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="34"/>
-      <c r="Q12" t="s" s="46">
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
+    </row>
+    <row r="14" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="40">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="35">
+        <v>2</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="40">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="40">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="35">
+        <v>6</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="40">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="35">
+        <v>1</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="40">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="35">
+        <v>4</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62">
+        <f>SUM(E9:E31)</f>
+        <v>19</v>
+      </c>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" ht="40" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39">
-        <f>E13*N13</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-    </row>
-    <row r="14" ht="40" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39">
-        <f>E14*N14</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="20"/>
-    </row>
-    <row r="15" ht="40" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39">
-        <f>E15*N15</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" ht="40" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39">
-        <f>E16*N16</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="20"/>
-    </row>
-    <row r="17" ht="40" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39">
-        <f>E17*N17</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="20"/>
-    </row>
-    <row r="18" ht="40" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="39">
-        <f>E18*N18</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="20"/>
-    </row>
-    <row r="19" ht="40" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39">
-        <f>E19*N19</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="20"/>
-    </row>
-    <row r="20" ht="40" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39">
-        <f>E20*N20</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="20"/>
-    </row>
-    <row r="21" ht="40" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39">
-        <f>E21*N21</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="20"/>
-    </row>
-    <row r="22" ht="40" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39">
-        <f>E22*N22</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="20"/>
-    </row>
-    <row r="23" ht="40" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39">
-        <f>E23*N23</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="20"/>
-    </row>
-    <row r="24" ht="40" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39">
-        <f>E24*N24</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="20"/>
-    </row>
-    <row r="25" ht="40" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="39">
-        <f>E25*N25</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="20"/>
-    </row>
-    <row r="26" ht="40" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="39">
-        <f>E26*N26</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="20"/>
-    </row>
-    <row r="27" ht="40" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="39">
-        <f>E27*N27</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="20"/>
-    </row>
-    <row r="28" ht="40" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="39">
-        <f>E28*N28</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="20"/>
-    </row>
-    <row r="29" ht="40" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="39">
-        <f>E29*N29</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="20"/>
-    </row>
-    <row r="30" ht="40" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="39">
-        <f>E30*N30</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="20"/>
-    </row>
-    <row r="31" ht="40" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="59">
-        <f>E31*N31</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="20"/>
-    </row>
-    <row r="32" ht="40" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63">
-        <f>SUM(E9:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="64"/>
-      <c r="G32" t="s" s="65">
-        <v>36</v>
-      </c>
-      <c r="H32" s="66"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" t="s" s="68">
-        <v>12</v>
-      </c>
-      <c r="O32" s="69">
+      <c r="H32" s="65"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" s="68">
         <f>SUM(O9:O31)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="20"/>
-    </row>
-    <row r="33" ht="15.5" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="20"/>
-    </row>
-    <row r="34" ht="15.5" customHeight="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="20"/>
-    </row>
-    <row r="35" ht="15.5" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="20"/>
-    </row>
-    <row r="36" ht="15.5" customHeight="1">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="76"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="19"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.6" customHeight="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="19"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.6" customHeight="1">
+      <c r="A34" s="27"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="19"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.6" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="19"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.6" customHeight="1">
+      <c r="A36" s="71"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D34:L36"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J31">
-    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" text="COMPLETE">
+    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(FIND(UPPER("COMPLETE"),UPPER(J9))))</formula>
       <formula>"COMPLETE"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" text="IN REVIEW">
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="IN REVIEW">
       <formula>NOT(ISERROR(FIND(UPPER("IN REVIEW"),UPPER(J9))))</formula>
       <formula>"IN REVIEW"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" stopIfTrue="1" text="IN PRODUCTION">
+    <cfRule type="containsText" dxfId="1" priority="3" stopIfTrue="1" operator="containsText" text="IN PRODUCTION">
       <formula>NOT(ISERROR(FIND(UPPER("IN PRODUCTION"),UPPER(J9))))</formula>
       <formula>"IN PRODUCTION"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" stopIfTrue="1" text="NOT STARTED">
+    <cfRule type="containsText" dxfId="0" priority="4" stopIfTrue="1" operator="containsText" text="NOT STARTED">
       <formula>NOT(ISERROR(FIND(UPPER("NOT STARTED"),UPPER(J9))))</formula>
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="67" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup scale="67" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/structure/BOM.xlsx
+++ b/structure/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loic-\Documents\projects\RecuH2O\structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6402700-4580-42A6-B652-82262F711F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153F5CA6-5F52-433D-B1A3-826FD388C968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Ce document a été exporté depuis Numbers. Chaque tableau a été converti en feuille de calcul Excel. Tous les autres objets sur chaque feuille Numbers ont été placés sur des feuilles de calcul différentes. Veuillez noter que les calculs de formules peuvent être différents dans Excel.</t>
   </si>
@@ -168,9 +168,6 @@
     <t xml:space="preserve">trappe </t>
   </si>
   <si>
-    <t xml:space="preserve">plaque rectangulaire </t>
-  </si>
-  <si>
     <t xml:space="preserve">vis </t>
   </si>
   <si>
@@ -201,13 +198,46 @@
     <t xml:space="preserve">sert de support pour le fil de cuivre </t>
   </si>
   <si>
-    <t>va servir à fabriquer le boitier étanche pour la arduino</t>
-  </si>
-  <si>
     <t xml:space="preserve">va servir pour récupérer la tension </t>
   </si>
   <si>
     <t>sert à fixer le boitier</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/stBNthqr9wW9uspRA</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/JWVT6nuBbzzUhZG86</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/PcfjZDFj2ubVPM538</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/W1z4g8K2w4kchBJx8</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/3BCQ1cj5jM6ZtJsz5</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/egqnYcrPVmnFSdvR8</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/iazkeEUGDgqq5V666</t>
+  </si>
+  <si>
+    <t>boitier étanche</t>
+  </si>
+  <si>
+    <t>protège la arduio de l'eau</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/o2UCi6xZk6Y2UBAKA</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/duTqBGjFqtnXRJNk9</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/QKc7WnFfdY8DHZB9A</t>
   </si>
 </sst>
 </file>
@@ -218,7 +248,7 @@
     <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;dd&quot;, &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;[$$-409]* #,##0.00&quot; &quot;;&quot; &quot;[$$-409]* \(#,##0.00\);&quot; &quot;[$$-409]* &quot;-&quot;??&quot; &quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -296,6 +326,12 @@
       <b/>
       <sz val="18"/>
       <color indexed="14"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -662,10 +698,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -864,8 +901,15 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -2163,8 +2207,8 @@
   </sheetPr>
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" customHeight="1"/>
@@ -2174,7 +2218,7 @@
     <col min="3" max="3" width="25" style="5" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="5" customWidth="1"/>
     <col min="5" max="6" width="10.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="28.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.875" style="5" customWidth="1"/>
     <col min="8" max="9" width="18.875" style="5" customWidth="1"/>
     <col min="10" max="10" width="16.875" style="5" customWidth="1"/>
     <col min="11" max="13" width="28.625" style="5" customWidth="1"/>
@@ -2284,7 +2328,7 @@
       </c>
       <c r="C5" s="25">
         <f>E32</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="16"/>
@@ -2308,7 +2352,7 @@
       </c>
       <c r="C6" s="26">
         <f>O32</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="16"/>
@@ -2402,13 +2446,15 @@
         <v>39</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="35">
         <v>1</v>
       </c>
       <c r="F9" s="35"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="78" t="s">
+        <v>57</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="36" t="s">
@@ -2437,13 +2483,15 @@
         <v>40</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="35">
         <v>1</v>
       </c>
       <c r="F10" s="35"/>
-      <c r="G10" s="41"/>
+      <c r="G10" s="79" t="s">
+        <v>59</v>
+      </c>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="42" t="s">
@@ -2452,10 +2500,12 @@
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
-      <c r="N10" s="37"/>
+      <c r="N10" s="37">
+        <v>5</v>
+      </c>
       <c r="O10" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P10" s="33"/>
       <c r="Q10" s="43" t="s">
@@ -2472,13 +2522,15 @@
         <v>41</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
       </c>
       <c r="F11" s="35"/>
-      <c r="G11" s="41"/>
+      <c r="G11" s="79" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
       <c r="J11" s="42" t="s">
@@ -2507,13 +2559,15 @@
         <v>43</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
       </c>
       <c r="F12" s="35"/>
-      <c r="G12" s="41"/>
+      <c r="G12" s="79" t="s">
+        <v>60</v>
+      </c>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="42" t="s">
@@ -2542,13 +2596,15 @@
         <v>44</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="35">
         <v>1</v>
       </c>
       <c r="F13" s="35"/>
-      <c r="G13" s="41"/>
+      <c r="G13" s="79" t="s">
+        <v>61</v>
+      </c>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="46"/>
@@ -2570,16 +2626,18 @@
         <v>6</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="35">
         <v>2</v>
       </c>
       <c r="F14" s="35"/>
-      <c r="G14" s="41"/>
+      <c r="G14" s="79" t="s">
+        <v>62</v>
+      </c>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
       <c r="J14" s="46"/>
@@ -2601,16 +2659,18 @@
         <v>7</v>
       </c>
       <c r="C15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>55</v>
       </c>
       <c r="E15" s="35">
         <v>1</v>
       </c>
       <c r="F15" s="35"/>
-      <c r="G15" s="41"/>
+      <c r="G15" s="79" t="s">
+        <v>63</v>
+      </c>
       <c r="H15" s="41"/>
       <c r="I15" s="41"/>
       <c r="J15" s="46"/>
@@ -2632,16 +2692,18 @@
         <v>8</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E16" s="35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16" s="35"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="78" t="s">
+        <v>66</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="49"/>
@@ -2666,13 +2728,15 @@
         <v>42</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="35">
         <v>1</v>
       </c>
       <c r="F17" s="35"/>
-      <c r="G17" s="41"/>
+      <c r="G17" s="79" t="s">
+        <v>67</v>
+      </c>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
       <c r="J17" s="46"/>
@@ -2694,16 +2758,18 @@
         <v>10</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" s="35">
         <v>4</v>
       </c>
       <c r="F18" s="35"/>
-      <c r="G18" s="41"/>
+      <c r="G18" s="79" t="s">
+        <v>68</v>
+      </c>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
       <c r="J18" s="46"/>
@@ -3011,7 +3077,7 @@
       <c r="D32" s="61"/>
       <c r="E32" s="62">
         <f>SUM(E9:E31)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F32" s="63"/>
       <c r="G32" s="64" t="s">
@@ -3028,7 +3094,7 @@
       </c>
       <c r="O32" s="68">
         <f>SUM(O9:O31)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P32" s="47"/>
       <c r="Q32" s="19"/>
@@ -3131,6 +3197,18 @@
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{07D22A9E-6E4F-4FA3-BB52-BBD9C12AAC51}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{3D0CD518-6105-4E05-AF39-BCDE4B8B4DB4}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{8AFBFA86-3D12-431B-A5B0-19719A7A3BD1}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{DE6DE1E3-9C15-4CD2-8E57-718964CB26AB}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{E5AF8ED0-BF2B-4215-8529-C8AE9C646DCC}"/>
+    <hyperlink ref="G14" r:id="rId6" xr:uid="{6BA5282A-2730-4EB1-970E-95FF97685EB0}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{73F66604-50E2-4654-917C-398AB043DAB6}"/>
+    <hyperlink ref="G16" r:id="rId8" xr:uid="{D1567C8B-86F3-47E7-A7B2-414FBC0D759F}"/>
+    <hyperlink ref="G17" r:id="rId9" xr:uid="{BDC9D580-9A45-4654-B3A7-27937D9E3386}"/>
+    <hyperlink ref="G18" r:id="rId10" xr:uid="{79EDB304-5CC6-4DC9-A721-117FC1F95B35}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup scale="67" orientation="landscape"/>
   <headerFooter>

--- a/structure/BOM.xlsx
+++ b/structure/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loic-\Documents\projects\RecuH2O\structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153F5CA6-5F52-433D-B1A3-826FD388C968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659DC37A-DF69-4C18-89DA-EACF649FD29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,6 +891,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -900,12 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2156,11 +2156,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
     </row>
     <row r="7" spans="2:4" ht="18.75">
       <c r="B7" s="1" t="s">
@@ -2207,8 +2207,8 @@
   </sheetPr>
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J26" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" customHeight="1"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="C5" s="25">
         <f>E32</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="16"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C6" s="26">
         <f>O32</f>
-        <v>5</v>
+        <v>140.49</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="16"/>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="35"/>
-      <c r="G9" s="78" t="s">
+      <c r="G9" s="74" t="s">
         <v>57</v>
       </c>
       <c r="H9" s="21"/>
@@ -2463,10 +2463,12 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="37"/>
+      <c r="N9" s="37">
+        <v>22.8</v>
+      </c>
       <c r="O9" s="38">
         <f t="shared" ref="O9:O31" si="0">E9*N9</f>
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="P9" s="33"/>
       <c r="Q9" s="39" t="s">
@@ -2489,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="35"/>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="75" t="s">
         <v>59</v>
       </c>
       <c r="H10" s="41"/>
@@ -2528,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="35"/>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="75" t="s">
         <v>58</v>
       </c>
       <c r="H11" s="41"/>
@@ -2539,10 +2541,12 @@
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
-      <c r="N11" s="37"/>
+      <c r="N11" s="37">
+        <v>7.37</v>
+      </c>
       <c r="O11" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.37</v>
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="44" t="s">
@@ -2565,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="35"/>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="75" t="s">
         <v>60</v>
       </c>
       <c r="H12" s="41"/>
@@ -2576,10 +2580,12 @@
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
-      <c r="N12" s="37"/>
+      <c r="N12" s="37">
+        <v>9.99</v>
+      </c>
       <c r="O12" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="P12" s="33"/>
       <c r="Q12" s="45" t="s">
@@ -2602,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="35"/>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="75" t="s">
         <v>61</v>
       </c>
       <c r="H13" s="41"/>
@@ -2611,10 +2617,12 @@
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
-      <c r="N13" s="37"/>
+      <c r="N13" s="37">
+        <v>22</v>
+      </c>
       <c r="O13" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P13" s="47"/>
       <c r="Q13" s="48"/>
@@ -2635,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="35"/>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="75" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="41"/>
@@ -2644,10 +2652,12 @@
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
-      <c r="N14" s="37"/>
+      <c r="N14" s="37">
+        <v>17.2</v>
+      </c>
       <c r="O14" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="P14" s="47"/>
       <c r="Q14" s="19"/>
@@ -2668,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="35"/>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="75" t="s">
         <v>63</v>
       </c>
       <c r="H15" s="41"/>
@@ -2677,10 +2687,12 @@
       <c r="K15" s="41"/>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
-      <c r="N15" s="37"/>
+      <c r="N15" s="37">
+        <v>15</v>
+      </c>
       <c r="O15" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P15" s="47"/>
       <c r="Q15" s="19"/>
@@ -2701,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="35"/>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="74" t="s">
         <v>66</v>
       </c>
       <c r="H16" s="21"/>
@@ -2710,10 +2722,12 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="37"/>
+      <c r="N16" s="37">
+        <v>10.130000000000001</v>
+      </c>
       <c r="O16" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="P16" s="47"/>
       <c r="Q16" s="19"/>
@@ -2734,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="35"/>
-      <c r="G17" s="79" t="s">
+      <c r="G17" s="75" t="s">
         <v>67</v>
       </c>
       <c r="H17" s="41"/>
@@ -2743,10 +2757,12 @@
       <c r="K17" s="41"/>
       <c r="L17" s="41"/>
       <c r="M17" s="41"/>
-      <c r="N17" s="37"/>
+      <c r="N17" s="37">
+        <v>3.81</v>
+      </c>
       <c r="O17" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="P17" s="47"/>
       <c r="Q17" s="19"/>
@@ -2764,10 +2780,10 @@
         <v>56</v>
       </c>
       <c r="E18" s="35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="35"/>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="75" t="s">
         <v>68</v>
       </c>
       <c r="H18" s="41"/>
@@ -2776,10 +2792,12 @@
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
-      <c r="N18" s="37"/>
+      <c r="N18" s="37">
+        <v>9.99</v>
+      </c>
       <c r="O18" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="P18" s="47"/>
       <c r="Q18" s="19"/>
@@ -3077,7 +3095,7 @@
       <c r="D32" s="61"/>
       <c r="E32" s="62">
         <f>SUM(E9:E31)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F32" s="63"/>
       <c r="G32" s="64" t="s">
@@ -3094,7 +3112,7 @@
       </c>
       <c r="O32" s="68">
         <f>SUM(O9:O31)</f>
-        <v>5</v>
+        <v>140.49</v>
       </c>
       <c r="P32" s="47"/>
       <c r="Q32" s="19"/>
@@ -3122,15 +3140,15 @@
       <c r="A34" s="27"/>
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
       <c r="M34" s="70"/>
       <c r="N34" s="70"/>
       <c r="O34" s="70"/>
@@ -3141,15 +3159,15 @@
       <c r="A35" s="27"/>
       <c r="B35" s="70"/>
       <c r="C35" s="70"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
       <c r="M35" s="70"/>
       <c r="N35" s="70"/>
       <c r="O35" s="70"/>
@@ -3160,15 +3178,15 @@
       <c r="A36" s="71"/>
       <c r="B36" s="72"/>
       <c r="C36" s="72"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
       <c r="M36" s="72"/>
       <c r="N36" s="72"/>
       <c r="O36" s="72"/>

--- a/structure/BOM.xlsx
+++ b/structure/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loic-\Documents\projects\RecuH2O\structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659DC37A-DF69-4C18-89DA-EACF649FD29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD9688-1881-47F4-8B7A-F14AECCE04DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Ce document a été exporté depuis Numbers. Chaque tableau a été converti en feuille de calcul Excel. Tous les autres objets sur chaque feuille Numbers ont été placés sur des feuilles de calcul différentes. Veuillez noter que les calculs de formules peuvent être différents dans Excel.</t>
   </si>
@@ -171,9 +171,6 @@
     <t xml:space="preserve">vis </t>
   </si>
   <si>
-    <t>tube PVC</t>
-  </si>
-  <si>
     <t xml:space="preserve">sert à récupérer les données de la sonde, les envoyer au graphbar, au moteur et au shield wifi </t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>sert à créer la goutière secondaire</t>
   </si>
   <si>
-    <t>tube plastique</t>
-  </si>
-  <si>
     <t xml:space="preserve">sert de support pour le fil de cuivre </t>
   </si>
   <si>
@@ -238,6 +232,18 @@
   </si>
   <si>
     <t>https://images.app.goo.gl/QKc7WnFfdY8DHZB9A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/fixation-30-embouts-Commande-LIVRAISON-Royaume-Uni/dp/B00P55N6UQ/ref=sr_1_22?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=vis+pour+pierre&amp;qid=1591692887&amp;refinements=p_76%3A437879031&amp;rnid=437877031&amp;rps=1&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Efco-fil-cuivre-couleur-Violet/dp/B00IG4HDYS/ref=sr_1_1?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=fil+de+cuivre&amp;qid=1591692812&amp;refinements=p_76%3A437879031&amp;rnid=437877031&amp;rps=1&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>tube PVC (optionnel)</t>
+  </si>
+  <si>
+    <t>tube plastique (optionnel)</t>
   </si>
 </sst>
 </file>
@@ -2207,8 +2213,8 @@
   </sheetPr>
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J26" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" customHeight="1"/>
@@ -2446,14 +2452,14 @@
         <v>39</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="35">
         <v>1</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -2461,7 +2467,7 @@
         <v>27</v>
       </c>
       <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="74"/>
       <c r="M9" s="21"/>
       <c r="N9" s="37">
         <v>22.8</v>
@@ -2485,14 +2491,14 @@
         <v>40</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="35">
         <v>1</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
@@ -2524,14 +2530,14 @@
         <v>41</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
@@ -2563,14 +2569,14 @@
         <v>43</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
@@ -2602,14 +2608,14 @@
         <v>44</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="35">
         <v>1</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
@@ -2634,17 +2640,17 @@
         <v>6</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="35">
         <v>2</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -2669,17 +2675,17 @@
         <v>7</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="35">
         <v>1</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="41"/>
@@ -2704,17 +2710,17 @@
         <v>8</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="35">
         <v>1</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -2742,20 +2748,22 @@
         <v>42</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="35">
         <v>1</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
       <c r="J17" s="46"/>
       <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
+      <c r="L17" s="75" t="s">
+        <v>68</v>
+      </c>
       <c r="M17" s="41"/>
       <c r="N17" s="37">
         <v>3.81</v>
@@ -2777,20 +2785,22 @@
         <v>45</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="35">
         <v>1</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
       <c r="J18" s="46"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="L18" s="75" t="s">
+        <v>67</v>
+      </c>
       <c r="M18" s="41"/>
       <c r="N18" s="37">
         <v>9.99</v>
@@ -3226,6 +3236,8 @@
     <hyperlink ref="G16" r:id="rId8" xr:uid="{D1567C8B-86F3-47E7-A7B2-414FBC0D759F}"/>
     <hyperlink ref="G17" r:id="rId9" xr:uid="{BDC9D580-9A45-4654-B3A7-27937D9E3386}"/>
     <hyperlink ref="G18" r:id="rId10" xr:uid="{79EDB304-5CC6-4DC9-A721-117FC1F95B35}"/>
+    <hyperlink ref="L17" r:id="rId11" xr:uid="{EDEFE362-CADA-4DAF-9C42-1A2C94DF97D4}"/>
+    <hyperlink ref="L18" r:id="rId12" xr:uid="{E5283EBB-5D24-4258-91DB-CC3B92010880}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup scale="67" orientation="landscape"/>

--- a/structure/BOM.xlsx
+++ b/structure/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loic-\Documents\projects\RecuH2O\structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD9688-1881-47F4-8B7A-F14AECCE04DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B964DDB-2877-4E66-9684-9B9C1763D23B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Ce document a été exporté depuis Numbers. Chaque tableau a été converti en feuille de calcul Excel. Tous les autres objets sur chaque feuille Numbers ont été placés sur des feuilles de calcul différentes. Veuillez noter que les calculs de formules peuvent être différents dans Excel.</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>tube plastique (optionnel)</t>
+  </si>
+  <si>
+    <t>http://robotix.ah-oui.org/user_docs/dos10/sg90-datasheet.pdf</t>
   </si>
 </sst>
 </file>
@@ -2213,8 +2216,8 @@
   </sheetPr>
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" customHeight="1"/>
@@ -2506,7 +2509,9 @@
         <v>29</v>
       </c>
       <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
+      <c r="L10" s="75" t="s">
+        <v>71</v>
+      </c>
       <c r="M10" s="41"/>
       <c r="N10" s="37">
         <v>5</v>
@@ -3238,6 +3243,7 @@
     <hyperlink ref="G18" r:id="rId10" xr:uid="{79EDB304-5CC6-4DC9-A721-117FC1F95B35}"/>
     <hyperlink ref="L17" r:id="rId11" xr:uid="{EDEFE362-CADA-4DAF-9C42-1A2C94DF97D4}"/>
     <hyperlink ref="L18" r:id="rId12" xr:uid="{E5283EBB-5D24-4258-91DB-CC3B92010880}"/>
+    <hyperlink ref="L10" r:id="rId13" xr:uid="{2FB3F958-672B-4F46-A534-B29A2439C28C}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup scale="67" orientation="landscape"/>

--- a/structure/BOM.xlsx
+++ b/structure/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loic-\Documents\projects\RecuH2O\structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B964DDB-2877-4E66-9684-9B9C1763D23B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F1C7F2-012F-4DC0-94C1-C0A1B7A48CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2216,7 +2216,7 @@
   </sheetPr>
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
